--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4A1247-8C5F-3A4E-8EA5-2B1D2C1C7EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951087B0-A4F4-4342-B278-FC9CEC9BAA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="10000" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
+    <workbookView xWindow="4120" yWindow="3660" windowWidth="13900" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Armagh</t>
   </si>
@@ -128,6 +128,30 @@
   </si>
   <si>
     <t>Carbeth</t>
+  </si>
+  <si>
+    <t>Ballimore</t>
+  </si>
+  <si>
+    <t>Kendal</t>
+  </si>
+  <si>
+    <t>Epping</t>
+  </si>
+  <si>
+    <t>Castle Cary</t>
+  </si>
+  <si>
+    <t>Benefield</t>
+  </si>
+  <si>
+    <t>Aylesbury</t>
+  </si>
+  <si>
+    <t>Trumpington</t>
+  </si>
+  <si>
+    <t>Guilsborough</t>
   </si>
 </sst>
 </file>
@@ -479,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,6 +857,94 @@
         <v>-4.37</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>-5.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>54.33</v>
+      </c>
+      <c r="C33">
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>51.7</v>
+      </c>
+      <c r="C34">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>52.35</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>51.09</v>
+      </c>
+      <c r="C36">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>52.48</v>
+      </c>
+      <c r="C37">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>52.82</v>
+      </c>
+      <c r="C38">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>52.17</v>
+      </c>
+      <c r="C39">
+        <v>0.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951087B0-A4F4-4342-B278-FC9CEC9BAA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB616E8E-FD40-6A49-9991-9265B13F2615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="3660" windowWidth="13900" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
+    <workbookView xWindow="4120" yWindow="1060" windowWidth="13900" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Armagh</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>Guilsborough</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Rochefort</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
   </si>
 </sst>
 </file>
@@ -503,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -945,6 +954,39 @@
         <v>0.11</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>45.94</v>
+      </c>
+      <c r="C40">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>43.3</v>
+      </c>
+      <c r="C41">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>64.13</v>
+      </c>
+      <c r="C42">
+        <v>-21.93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB616E8E-FD40-6A49-9991-9265B13F2615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A6E2F-6969-E241-A9B6-5CFDAE934583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4120" yWindow="1060" windowWidth="13900" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Armagh</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>Welbeck</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,6 +990,17 @@
         <v>-21.93</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>53.26</v>
+      </c>
+      <c r="C43">
+        <v>-1.1499999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A6E2F-6969-E241-A9B6-5CFDAE934583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63929721-F80F-7F45-BA9B-C1136A26C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="1060" windowWidth="13900" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
+    <workbookView xWindow="9540" yWindow="600" windowWidth="22380" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Armagh</t>
   </si>
@@ -164,6 +164,48 @@
   </si>
   <si>
     <t>Welbeck</t>
+  </si>
+  <si>
+    <t>Hackney</t>
+  </si>
+  <si>
+    <t>Harleston</t>
+  </si>
+  <si>
+    <t>Sunbury</t>
+  </si>
+  <si>
+    <t>Walkeringham</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Haarlem</t>
+  </si>
+  <si>
+    <t>Zwanenberg</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>HOHENPEISSENBERG</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>Great St Bernhard</t>
   </si>
 </sst>
 </file>
@@ -515,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,453 +594,607 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>59.33</v>
+        <v>59.86</v>
       </c>
       <c r="C3">
-        <v>18.07</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>59.86</v>
+        <v>52.11</v>
       </c>
       <c r="C4">
-        <v>17.64</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>52.11</v>
+        <v>50.73</v>
       </c>
       <c r="C5">
-        <v>5.18</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>50.73</v>
+        <v>50.35</v>
       </c>
       <c r="C6">
-        <v>-3.53</v>
+        <v>-3.89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>50.35</v>
+        <v>52.5</v>
       </c>
       <c r="C7">
-        <v>-3.89</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>52.5</v>
+        <v>51.75</v>
       </c>
       <c r="C8">
-        <v>1.44</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>51.75</v>
+        <v>51.51</v>
       </c>
       <c r="C9">
-        <v>-1.26</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>51.51</v>
+        <v>51.33</v>
       </c>
       <c r="C10">
-        <v>-0.13</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>51.33</v>
+        <v>52.98</v>
       </c>
       <c r="C11">
-        <v>-0.41</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>52.98</v>
+        <v>55.13</v>
       </c>
       <c r="C12">
-        <v>-0.03</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>55.13</v>
+        <v>52.195</v>
       </c>
       <c r="C13">
-        <v>-3.4</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>52.195</v>
+        <v>50.15</v>
       </c>
       <c r="C14">
-        <v>0.13</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>50.15</v>
+        <v>51.9</v>
       </c>
       <c r="C15">
-        <v>-5.07</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>51.9</v>
+        <v>55.77</v>
       </c>
       <c r="C16">
-        <v>-2.08</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>55.77</v>
+        <v>55.94</v>
       </c>
       <c r="C17">
-        <v>-2</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>55.94</v>
+        <v>52.26</v>
       </c>
       <c r="C18">
-        <v>-3.04</v>
+        <v>-7.11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>52.26</v>
+        <v>51.45</v>
       </c>
       <c r="C19">
-        <v>-7.11</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>51.45</v>
+        <v>51.62</v>
       </c>
       <c r="C20">
-        <v>-2.59</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>51.62</v>
+        <v>57.48</v>
       </c>
       <c r="C21">
-        <v>-3.94</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>57.48</v>
+        <v>56.12</v>
       </c>
       <c r="C22">
-        <v>-4.22</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>56.12</v>
+        <v>57.15</v>
       </c>
       <c r="C23">
-        <v>-3.16</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>57.15</v>
+        <v>53.35</v>
       </c>
       <c r="C24">
-        <v>-2.09</v>
+        <v>-6.26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>53.35</v>
+        <v>51.49</v>
       </c>
       <c r="C25">
-        <v>-6.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>51.49</v>
+        <v>53.8</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>53.8</v>
+        <v>52.28</v>
       </c>
       <c r="C27">
-        <v>-1.55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>52.28</v>
+        <v>56.39</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>56.39</v>
+        <v>56.16</v>
       </c>
       <c r="C29">
-        <v>-3.28</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>56.16</v>
+        <v>55.98</v>
       </c>
       <c r="C30">
-        <v>-3.68</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>55.98</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>-4.37</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>56</v>
+        <v>54.33</v>
       </c>
       <c r="C32">
-        <v>-5.33</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>54.33</v>
+        <v>51.7</v>
       </c>
       <c r="C33">
-        <v>-2.75</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>51.7</v>
+        <v>52.35</v>
       </c>
       <c r="C34">
-        <v>0.11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>52.35</v>
+        <v>51.09</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>-2.5099999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>51.09</v>
+        <v>52.48</v>
       </c>
       <c r="C36">
-        <v>-2.5099999999999998</v>
+        <v>-0.56000000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>52.48</v>
+        <v>52.82</v>
       </c>
       <c r="C37">
-        <v>-0.56000000000000005</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>52.82</v>
+        <v>52.17</v>
       </c>
       <c r="C38">
-        <v>-0.81</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>52.17</v>
+        <v>45.94</v>
       </c>
       <c r="C39">
-        <v>0.11</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>45.94</v>
+        <v>43.3</v>
       </c>
       <c r="C40">
-        <v>-0.96</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>43.3</v>
+        <v>64.13</v>
       </c>
       <c r="C41">
-        <v>5.37</v>
+        <v>-21.93</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>64.13</v>
+        <v>53.26</v>
       </c>
       <c r="C42">
-        <v>-21.93</v>
+        <v>-1.1499999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>53.26</v>
+        <v>51.57</v>
       </c>
       <c r="C43">
-        <v>-1.1499999999999999</v>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>52.4</v>
+      </c>
+      <c r="C44">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>51.42</v>
+      </c>
+      <c r="C45">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>53.43</v>
+      </c>
+      <c r="C46">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>52.37</v>
+      </c>
+      <c r="C47">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>59.91</v>
+      </c>
+      <c r="C48">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>52.39</v>
+      </c>
+      <c r="C49">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>52.38</v>
+      </c>
+      <c r="C50">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>46.23</v>
+      </c>
+      <c r="C51">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>59.35</v>
+      </c>
+      <c r="C52">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>45.07</v>
+      </c>
+      <c r="C53">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>47.8</v>
+      </c>
+      <c r="C54">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>47.56</v>
+      </c>
+      <c r="C55">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>44.41</v>
+      </c>
+      <c r="C56">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>47.87</v>
+      </c>
+      <c r="C57">
+        <v>7.17</v>
       </c>
     </row>
   </sheetData>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63929721-F80F-7F45-BA9B-C1136A26C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B4B10-9F56-994D-88E0-640D0918A64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9540" yWindow="600" windowWidth="22380" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Armagh</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Great St Bernhard</t>
+  </si>
+  <si>
+    <t>Reading</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,6 +1200,17 @@
         <v>7.17</v>
       </c>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>51.46</v>
+      </c>
+      <c r="C58">
+        <v>-0.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B4B10-9F56-994D-88E0-640D0918A64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9081E3B-E881-4040-A145-4F22B5615A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9540" yWindow="600" windowWidth="22380" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Armagh</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Uppsala</t>
   </si>
   <si>
-    <t>De Bilt</t>
-  </si>
-  <si>
     <t>Exeter</t>
   </si>
   <si>
@@ -209,14 +207,40 @@
   </si>
   <si>
     <t>Reading</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>NDAY</t>
+  </si>
+  <si>
+    <t>TYPE (1=exist,2=newspaper,3=diary)</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -244,8 +268,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,55 +596,80 @@
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>54.35</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>-6.65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>48.86</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>59.86</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>17.64</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="B4">
-        <v>52.11</v>
-      </c>
-      <c r="C4">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
       </c>
       <c r="B5">
         <v>50.73</v>
@@ -627,10 +677,16 @@
       <c r="C5">
         <v>-3.53</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>50.35</v>
@@ -638,10 +694,16 @@
       <c r="C6">
         <v>-3.89</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>52.5</v>
@@ -649,10 +711,16 @@
       <c r="C7">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>51.75</v>
@@ -660,10 +728,16 @@
       <c r="C8">
         <v>-1.26</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>51.51</v>
@@ -671,10 +745,16 @@
       <c r="C9">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>51.33</v>
@@ -682,10 +762,16 @@
       <c r="C10">
         <v>-0.41</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>52.98</v>
@@ -693,10 +779,16 @@
       <c r="C11">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>55.13</v>
@@ -704,10 +796,16 @@
       <c r="C12">
         <v>-3.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>52.195</v>
@@ -715,10 +813,16 @@
       <c r="C13">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>50.15</v>
@@ -726,10 +830,16 @@
       <c r="C14">
         <v>-5.07</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>51.9</v>
@@ -737,10 +847,16 @@
       <c r="C15">
         <v>-2.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>55.77</v>
@@ -748,10 +864,16 @@
       <c r="C16">
         <v>-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>55.94</v>
@@ -759,10 +881,16 @@
       <c r="C17">
         <v>-3.04</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>52.26</v>
@@ -770,10 +898,16 @@
       <c r="C18">
         <v>-7.11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>51.45</v>
@@ -781,10 +915,16 @@
       <c r="C19">
         <v>-2.59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>51.62</v>
@@ -792,10 +932,16 @@
       <c r="C20">
         <v>-3.94</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>57.48</v>
@@ -803,10 +949,16 @@
       <c r="C21">
         <v>-4.22</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>56.12</v>
@@ -814,10 +966,16 @@
       <c r="C22">
         <v>-3.16</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>57.15</v>
@@ -825,10 +983,16 @@
       <c r="C23">
         <v>-2.09</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>53.35</v>
@@ -836,10 +1000,16 @@
       <c r="C24">
         <v>-6.26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>51.49</v>
@@ -847,10 +1017,16 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>53.8</v>
@@ -858,10 +1034,16 @@
       <c r="C26">
         <v>-1.55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>52.28</v>
@@ -869,10 +1051,16 @@
       <c r="C27">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>56.39</v>
@@ -880,10 +1068,16 @@
       <c r="C28">
         <v>-3.28</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>56.16</v>
@@ -891,10 +1085,16 @@
       <c r="C29">
         <v>-3.68</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>55.98</v>
@@ -902,10 +1102,16 @@
       <c r="C30">
         <v>-4.37</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>56</v>
@@ -913,10 +1119,16 @@
       <c r="C31">
         <v>-5.33</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>54.33</v>
@@ -924,10 +1136,16 @@
       <c r="C32">
         <v>-2.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>51.7</v>
@@ -935,10 +1153,16 @@
       <c r="C33">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>52.35</v>
@@ -946,10 +1170,16 @@
       <c r="C34">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>51.09</v>
@@ -957,10 +1187,16 @@
       <c r="C35">
         <v>-2.5099999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>52.48</v>
@@ -968,10 +1204,16 @@
       <c r="C36">
         <v>-0.56000000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>52.82</v>
@@ -979,10 +1221,16 @@
       <c r="C37">
         <v>-0.81</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>52.17</v>
@@ -990,10 +1238,16 @@
       <c r="C38">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>45.94</v>
@@ -1001,10 +1255,16 @@
       <c r="C39">
         <v>-0.96</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>43.3</v>
@@ -1012,10 +1272,16 @@
       <c r="C40">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>64.13</v>
@@ -1023,10 +1289,16 @@
       <c r="C41">
         <v>-21.93</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>53.26</v>
@@ -1034,10 +1306,16 @@
       <c r="C42">
         <v>-1.1499999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>51.57</v>
@@ -1045,10 +1323,16 @@
       <c r="C43">
         <v>-7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>52.4</v>
@@ -1056,10 +1340,16 @@
       <c r="C44">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>51.42</v>
@@ -1067,10 +1357,16 @@
       <c r="C45">
         <v>-0.42</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>53.43</v>
@@ -1078,10 +1374,16 @@
       <c r="C46">
         <v>-0.84</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>52.37</v>
@@ -1089,10 +1391,16 @@
       <c r="C47">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>59.91</v>
@@ -1100,10 +1408,16 @@
       <c r="C48">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>52.39</v>
@@ -1111,10 +1425,16 @@
       <c r="C49">
         <v>4.6500000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>52.38</v>
@@ -1122,93 +1442,164 @@
       <c r="C50">
         <v>4.74</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>52.09</v>
+      </c>
+      <c r="C51">
+        <v>5.12</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>46.23</v>
+      </c>
+      <c r="C52">
+        <v>6.11</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>59.35</v>
+      </c>
+      <c r="C53">
+        <v>18.05</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>46.23</v>
-      </c>
-      <c r="C51">
-        <v>6.11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>59.35</v>
-      </c>
-      <c r="C52">
-        <v>18.05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B54">
+        <v>45.07</v>
+      </c>
+      <c r="C54">
+        <v>7.69</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>45.07</v>
-      </c>
-      <c r="C53">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B55">
+        <v>47.8</v>
+      </c>
+      <c r="C55">
+        <v>11.02</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>47.8</v>
-      </c>
-      <c r="C54">
-        <v>11.02</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="B56">
+        <v>47.56</v>
+      </c>
+      <c r="C56">
+        <v>7.58</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>47.56</v>
-      </c>
-      <c r="C55">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="B57">
+        <v>44.41</v>
+      </c>
+      <c r="C57">
+        <v>8.93</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>44.41</v>
-      </c>
-      <c r="C56">
-        <v>8.93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B58">
+        <v>47.87</v>
+      </c>
+      <c r="C58">
+        <v>7.17</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>47.87</v>
-      </c>
-      <c r="C57">
-        <v>7.17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
+      <c r="B59">
         <v>51.46</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>-0.98</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9081E3B-E881-4040-A145-4F22B5615A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3936727E-4B13-A94F-A490-3478992BBB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9540" yWindow="600" windowWidth="22380" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Armagh</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Neath</t>
   </si>
 </sst>
 </file>
@@ -289,7 +292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -577,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,6 +1605,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>51.66</v>
+      </c>
+      <c r="C60">
+        <v>-3.81</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3936727E-4B13-A94F-A490-3478992BBB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3708D638-B11F-6C47-82B9-E5CCAD4E6362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="600" windowWidth="22380" windowHeight="16940" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
+    <workbookView xWindow="6640" yWindow="3040" windowWidth="22380" windowHeight="11680" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Armagh</t>
   </si>
@@ -228,6 +228,39 @@
   </si>
   <si>
     <t>Neath</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Herisau</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Bern Trechsel</t>
+  </si>
+  <si>
+    <t>Fribourg</t>
+  </si>
+  <si>
+    <t>Nufenen</t>
+  </si>
+  <si>
+    <t>St Gallen</t>
+  </si>
+  <si>
+    <t>Schaffhausen</t>
+  </si>
+  <si>
+    <t>Vevey</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Rovereto</t>
   </si>
 </sst>
 </file>
@@ -292,7 +325,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -580,7 +613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,10 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1622,6 +1656,210 @@
         <v>2</v>
       </c>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>52.52</v>
+      </c>
+      <c r="C61">
+        <v>13.4</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>47.384999999999998</v>
+      </c>
+      <c r="C62">
+        <v>9.2789999999999999</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>46.948</v>
+      </c>
+      <c r="C63">
+        <v>7.452</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>46.947000000000003</v>
+      </c>
+      <c r="C64">
+        <v>7.4509999999999996</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>46.807000000000002</v>
+      </c>
+      <c r="C65">
+        <v>7.1580000000000004</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>46.539499999999997</v>
+      </c>
+      <c r="C66">
+        <v>9.2439999999999998</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>47.423999999999999</v>
+      </c>
+      <c r="C67">
+        <v>9.3780000000000001</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>47.695999999999998</v>
+      </c>
+      <c r="C68">
+        <v>8.6389999999999993</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>46.46</v>
+      </c>
+      <c r="C69">
+        <v>6.84</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>47.37</v>
+      </c>
+      <c r="C70">
+        <v>8.4740000000000002</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71">
+        <v>47.55</v>
+      </c>
+      <c r="C71">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>45.883000000000003</v>
+      </c>
+      <c r="C72">
+        <v>11.05</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3708D638-B11F-6C47-82B9-E5CCAD4E6362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A016EB59-59B3-D541-A6B2-BFBBC4D4D984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="3040" windowWidth="22380" windowHeight="11680" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
+    <workbookView xWindow="1880" yWindow="1960" windowWidth="22380" windowHeight="11680" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Armagh</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Rovereto</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
   </si>
 </sst>
 </file>
@@ -621,11 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1860,6 +1863,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>49.008000000000003</v>
+      </c>
+      <c r="C73">
+        <v>8.4039999999999999</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A016EB59-59B3-D541-A6B2-BFBBC4D4D984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386FFB94-0D78-BE4A-8579-EA02974CED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1960" windowWidth="22380" windowHeight="11680" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
+    <workbookView xWindow="940" yWindow="580" windowWidth="10000" windowHeight="11680" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Armagh</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Aberdeen</t>
   </si>
   <si>
-    <t>Dublin</t>
-  </si>
-  <si>
     <t>Greenwich</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t>NDAY</t>
   </si>
   <si>
-    <t>TYPE (1=exist,2=newspaper,3=diary)</t>
-  </si>
-  <si>
     <t>Utrecht</t>
   </si>
   <si>
@@ -264,6 +258,90 @@
   </si>
   <si>
     <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Carrickfergus</t>
+  </si>
+  <si>
+    <t>Dublin (S Frederick St)</t>
+  </si>
+  <si>
+    <t>Dublin (Phoenix Pk)</t>
+  </si>
+  <si>
+    <t>Dunsink</t>
+  </si>
+  <si>
+    <t>TYPE (1=exist,2=newspaper,3=diary,4=short)</t>
+  </si>
+  <si>
+    <t>Sumburgh Head</t>
+  </si>
+  <si>
+    <t>Inchkeith</t>
+  </si>
+  <si>
+    <t>Isle of May</t>
+  </si>
+  <si>
+    <t>Girdleness</t>
+  </si>
+  <si>
+    <t>Buchanness</t>
+  </si>
+  <si>
+    <t>Kinnaird Head</t>
+  </si>
+  <si>
+    <t>Tarbetness</t>
+  </si>
+  <si>
+    <t>Pentland Skerries</t>
+  </si>
+  <si>
+    <t>Dunnet Head</t>
+  </si>
+  <si>
+    <t>Cape Wrath</t>
+  </si>
+  <si>
+    <t>Island Glass</t>
+  </si>
+  <si>
+    <t>Barra Head</t>
+  </si>
+  <si>
+    <t>Lismore</t>
+  </si>
+  <si>
+    <t>Rhins of Islay</t>
+  </si>
+  <si>
+    <t>Mull of Kintyre</t>
+  </si>
+  <si>
+    <t>Pladda</t>
+  </si>
+  <si>
+    <t>Corsewall</t>
+  </si>
+  <si>
+    <t>Portpatrick</t>
+  </si>
+  <si>
+    <t>Mull of Galloway</t>
+  </si>
+  <si>
+    <t>Point of Ayre</t>
+  </si>
+  <si>
+    <t>Calf of Man</t>
+  </si>
+  <si>
+    <t>Bell Rock</t>
+  </si>
+  <si>
+    <t>Start Point (Orkney)</t>
   </si>
 </sst>
 </file>
@@ -624,11 +702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,19 +719,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -942,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1032,13 +1110,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B24">
-        <v>53.35</v>
+        <v>53.356000000000002</v>
       </c>
       <c r="C24">
-        <v>-6.26</v>
+        <v>-6.33</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -1049,7 +1127,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>51.49</v>
@@ -1066,7 +1144,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>53.8</v>
@@ -1083,7 +1161,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>52.28</v>
@@ -1100,7 +1178,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>56.39</v>
@@ -1117,7 +1195,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>56.16</v>
@@ -1134,7 +1212,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>55.98</v>
@@ -1151,7 +1229,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>56</v>
@@ -1168,7 +1246,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>54.33</v>
@@ -1185,7 +1263,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>51.7</v>
@@ -1202,7 +1280,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>52.35</v>
@@ -1219,7 +1297,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>51.09</v>
@@ -1236,7 +1314,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>52.48</v>
@@ -1253,7 +1331,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>52.82</v>
@@ -1270,7 +1348,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>52.17</v>
@@ -1287,7 +1365,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>45.94</v>
@@ -1304,7 +1382,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>43.3</v>
@@ -1321,7 +1399,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>64.13</v>
@@ -1338,7 +1416,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>53.26</v>
@@ -1355,7 +1433,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>51.57</v>
@@ -1372,7 +1450,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>52.4</v>
@@ -1389,7 +1467,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>51.42</v>
@@ -1406,7 +1484,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>53.43</v>
@@ -1423,7 +1501,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>52.37</v>
@@ -1440,7 +1518,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>59.91</v>
@@ -1457,7 +1535,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>52.39</v>
@@ -1474,7 +1552,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>52.38</v>
@@ -1491,7 +1569,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>52.09</v>
@@ -1508,7 +1586,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>46.23</v>
@@ -1542,7 +1620,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>45.07</v>
@@ -1559,7 +1637,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>47.8</v>
@@ -1576,7 +1654,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56">
         <v>47.56</v>
@@ -1593,7 +1671,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57">
         <v>44.41</v>
@@ -1610,7 +1688,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58">
         <v>47.87</v>
@@ -1627,7 +1705,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>51.46</v>
@@ -1644,7 +1722,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>51.66</v>
@@ -1661,7 +1739,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>52.52</v>
@@ -1678,7 +1756,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>47.384999999999998</v>
@@ -1695,7 +1773,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>46.948</v>
@@ -1712,7 +1790,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>46.947000000000003</v>
@@ -1729,7 +1807,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>46.807000000000002</v>
@@ -1746,7 +1824,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>46.539499999999997</v>
@@ -1763,7 +1841,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>47.423999999999999</v>
@@ -1780,7 +1858,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>47.695999999999998</v>
@@ -1797,7 +1875,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>46.46</v>
@@ -1814,7 +1892,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>47.37</v>
@@ -1831,7 +1909,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71">
         <v>47.55</v>
@@ -1848,7 +1926,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>45.883000000000003</v>
@@ -1865,7 +1943,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>49.008000000000003</v>
@@ -1878,6 +1956,448 @@
       </c>
       <c r="E73">
         <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>54.73</v>
+      </c>
+      <c r="C74">
+        <v>-5.81</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>53.341000000000001</v>
+      </c>
+      <c r="C75">
+        <v>-6.2569999999999997</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>53.387</v>
+      </c>
+      <c r="C76">
+        <v>-6.3369999999999997</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77">
+        <v>59.853999999999999</v>
+      </c>
+      <c r="C77">
+        <v>-1.2749999999999999</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78">
+        <v>56.033000000000001</v>
+      </c>
+      <c r="C78">
+        <v>-3.1349999999999998</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>56.183</v>
+      </c>
+      <c r="C79">
+        <v>-2.5670000000000002</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>57.139000000000003</v>
+      </c>
+      <c r="C80">
+        <v>-2.0489999999999999</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81">
+        <v>57.470999999999997</v>
+      </c>
+      <c r="C81">
+        <v>-1.7769999999999999</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>57.698</v>
+      </c>
+      <c r="C82">
+        <v>-2.0059999999999998</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>57.865000000000002</v>
+      </c>
+      <c r="C83">
+        <v>-3.7759999999999998</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>58.69</v>
+      </c>
+      <c r="C84">
+        <v>-2.9260000000000002</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85">
+        <v>59.277000000000001</v>
+      </c>
+      <c r="C85">
+        <v>-2.3759999999999999</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>58.670999999999999</v>
+      </c>
+      <c r="C86">
+        <v>-3.3759999999999999</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>58.625</v>
+      </c>
+      <c r="C87">
+        <v>-4.9980000000000002</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>57.856000000000002</v>
+      </c>
+      <c r="C88">
+        <v>-6.6420000000000003</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>56.784999999999997</v>
+      </c>
+      <c r="C89">
+        <v>-7.6529999999999996</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>56.454999999999998</v>
+      </c>
+      <c r="C90">
+        <v>-5.6070000000000002</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>55.671999999999997</v>
+      </c>
+      <c r="C91">
+        <v>-6.5110000000000001</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>55.31</v>
+      </c>
+      <c r="C92">
+        <v>-5.8029999999999999</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>55.424999999999997</v>
+      </c>
+      <c r="C93">
+        <v>-5.1180000000000003</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>55.006999999999998</v>
+      </c>
+      <c r="C94">
+        <v>-5.1589999999999998</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>54.84</v>
+      </c>
+      <c r="C95">
+        <v>-5.1180000000000003</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>54.634999999999998</v>
+      </c>
+      <c r="C96">
+        <v>-4.8570000000000002</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>54.415999999999997</v>
+      </c>
+      <c r="C97">
+        <v>-4.3680000000000003</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>54.052</v>
+      </c>
+      <c r="C98">
+        <v>-4.8289999999999997</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>56.433</v>
+      </c>
+      <c r="C99">
+        <v>-2.3879999999999999</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386FFB94-0D78-BE4A-8579-EA02974CED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DC0450-66C2-2740-8B9C-C4E8E7235A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="580" windowWidth="10000" windowHeight="11680" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
+    <workbookView xWindow="940" yWindow="580" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Armagh</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Start Point (Orkney)</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
   </si>
 </sst>
 </file>
@@ -392,8 +395,125 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB8AC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB8AC"/>
+      <color rgb="FFFF988A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -702,11 +822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2400,7 +2520,41 @@
         <v>4</v>
       </c>
     </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>53.405000000000001</v>
+      </c>
+      <c r="C100">
+        <v>-2.988</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"2$B$8"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DC0450-66C2-2740-8B9C-C4E8E7235A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDC2A54-0A8B-664E-814F-BA9436C000EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="580" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
+    <workbookView xWindow="9300" yWindow="1920" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>Armagh</t>
   </si>
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>New Romney</t>
+  </si>
+  <si>
+    <t>Limerick (Adare)</t>
   </si>
 </sst>
 </file>
@@ -395,62 +407,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFB8AC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -472,29 +433,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -822,11 +760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1463,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,21 +2475,89 @@
         <v>2</v>
       </c>
     </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101">
+        <v>50.802999999999997</v>
+      </c>
+      <c r="C101">
+        <v>4.3410000000000002</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102">
+        <v>55.86</v>
+      </c>
+      <c r="C102">
+        <v>-4.25</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103">
+        <v>50.98</v>
+      </c>
+      <c r="C103">
+        <v>0.94</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>52.56</v>
+      </c>
+      <c r="C104">
+        <v>-8.7899999999999991</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"2$B$8"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDC2A54-0A8B-664E-814F-BA9436C000EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF0EC4F-0D8A-5A4C-8A4C-7EF1604C8B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="1920" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
@@ -764,7 +764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF0EC4F-0D8A-5A4C-8A4C-7EF1604C8B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8B947-0B6A-934B-8581-C8FA256D0347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1920" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
+    <workbookView xWindow="3640" yWindow="2480" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>Armagh</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Oxford</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
     <t>Cobham</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Aberdeen</t>
   </si>
   <si>
-    <t>Greenwich</t>
-  </si>
-  <si>
     <t>Leeds</t>
   </si>
   <si>
@@ -357,6 +351,15 @@
   </si>
   <si>
     <t>Limerick (Adare)</t>
+  </si>
+  <si>
+    <t>London (Royal Soc)</t>
+  </si>
+  <si>
+    <t>London (Beaufort)</t>
+  </si>
+  <si>
+    <t>London (Greenwich)</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,22 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFB8AC"/>
+          <fgColor auto="1"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -425,22 +443,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="2"/>
+          <bgColor rgb="FFFFB8AC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -760,11 +763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,19 +780,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -913,16 +916,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B9">
         <v>51.51</v>
       </c>
       <c r="C9">
-        <v>-0.13</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -930,16 +933,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B10">
-        <v>51.33</v>
+        <v>51.52</v>
       </c>
       <c r="C10">
-        <v>-0.41</v>
+        <v>-0.15</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -947,33 +950,33 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>52.98</v>
+        <v>51.33</v>
       </c>
       <c r="C11">
-        <v>-0.03</v>
+        <v>-0.41</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>55.13</v>
+        <v>52.98</v>
       </c>
       <c r="C12">
-        <v>-3.4</v>
+        <v>-0.03</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -981,13 +984,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>52.195</v>
+        <v>55.13</v>
       </c>
       <c r="C13">
-        <v>0.13</v>
+        <v>-3.4</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -998,16 +1001,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>50.15</v>
+        <v>52.195</v>
       </c>
       <c r="C14">
-        <v>-5.07</v>
+        <v>0.13</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1015,16 +1018,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>51.9</v>
+        <v>50.15</v>
       </c>
       <c r="C15">
-        <v>-2.08</v>
+        <v>-5.07</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1032,13 +1035,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>55.77</v>
+        <v>51.9</v>
       </c>
       <c r="C16">
-        <v>-2</v>
+        <v>-2.08</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1049,13 +1052,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>55.94</v>
+        <v>55.77</v>
       </c>
       <c r="C17">
-        <v>-3.04</v>
+        <v>-2</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1066,50 +1069,50 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>52.26</v>
+        <v>55.94</v>
       </c>
       <c r="C18">
-        <v>-7.11</v>
+        <v>-3.04</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>51.45</v>
+        <v>52.26</v>
       </c>
       <c r="C19">
-        <v>-2.59</v>
+        <v>-7.11</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>51.62</v>
+        <v>51.45</v>
       </c>
       <c r="C20">
-        <v>-3.94</v>
+        <v>-2.59</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1117,33 +1120,33 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>57.48</v>
+        <v>51.62</v>
       </c>
       <c r="C21">
-        <v>-4.22</v>
+        <v>-3.94</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>56.12</v>
+        <v>57.48</v>
       </c>
       <c r="C22">
-        <v>-3.16</v>
+        <v>-4.22</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1151,16 +1154,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>57.15</v>
+        <v>56.12</v>
       </c>
       <c r="C23">
-        <v>-2.09</v>
+        <v>-3.16</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1168,50 +1171,50 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>53.356000000000002</v>
+        <v>57.15</v>
       </c>
       <c r="C24">
-        <v>-6.33</v>
+        <v>-2.09</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B25">
-        <v>51.49</v>
+        <v>53.356000000000002</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-6.33</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B26">
-        <v>53.8</v>
+        <v>51.49</v>
       </c>
       <c r="C26">
-        <v>-1.55</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -1219,50 +1222,50 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>52.28</v>
+        <v>53.8</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>-1.55</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>56.39</v>
+        <v>52.28</v>
       </c>
       <c r="C28">
-        <v>-3.28</v>
+        <v>-1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>56.16</v>
+        <v>56.39</v>
       </c>
       <c r="C29">
-        <v>-3.68</v>
+        <v>-3.28</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1270,16 +1273,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>55.98</v>
+        <v>56.16</v>
       </c>
       <c r="C30">
-        <v>-4.37</v>
+        <v>-3.68</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -1287,13 +1290,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>56</v>
+        <v>55.98</v>
       </c>
       <c r="C31">
-        <v>-5.33</v>
+        <v>-4.37</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1304,16 +1307,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>54.33</v>
+        <v>56</v>
       </c>
       <c r="C32">
-        <v>-2.75</v>
+        <v>-5.33</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1321,16 +1324,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>51.7</v>
+        <v>54.33</v>
       </c>
       <c r="C33">
-        <v>0.11</v>
+        <v>-2.75</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1338,13 +1341,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>52.35</v>
+        <v>51.7</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>0.11</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1355,13 +1358,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>51.09</v>
+        <v>52.35</v>
       </c>
       <c r="C35">
-        <v>-2.5099999999999998</v>
+        <v>-1</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1372,16 +1375,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>52.48</v>
+        <v>51.09</v>
       </c>
       <c r="C36">
-        <v>-0.56000000000000005</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1389,67 +1392,67 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>52.82</v>
+        <v>52.48</v>
       </c>
       <c r="C37">
-        <v>-0.81</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>52.17</v>
+        <v>52.82</v>
       </c>
       <c r="C38">
-        <v>0.11</v>
+        <v>-0.81</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>45.94</v>
+        <v>52.17</v>
       </c>
       <c r="C39">
-        <v>-0.96</v>
+        <v>0.11</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>43.3</v>
+        <v>45.94</v>
       </c>
       <c r="C40">
-        <v>5.37</v>
+        <v>-0.96</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1457,16 +1460,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>64.13</v>
+        <v>43.3</v>
       </c>
       <c r="C41">
-        <v>-21.93</v>
+        <v>5.37</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1474,30 +1477,30 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>53.26</v>
+        <v>64.13</v>
       </c>
       <c r="C42">
-        <v>-1.1499999999999999</v>
+        <v>-21.93</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>51.57</v>
+        <v>53.26</v>
       </c>
       <c r="C43">
-        <v>-7.0000000000000007E-2</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1508,16 +1511,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B44">
-        <v>52.4</v>
+        <v>51.57</v>
       </c>
       <c r="C44">
-        <v>1.3</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -1525,16 +1528,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>51.42</v>
+        <v>52.4</v>
       </c>
       <c r="C45">
-        <v>-0.42</v>
+        <v>1.3</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -1542,16 +1545,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46">
-        <v>53.43</v>
+        <v>51.42</v>
       </c>
       <c r="C46">
-        <v>-0.84</v>
+        <v>-0.42</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -1559,33 +1562,33 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47">
-        <v>52.37</v>
+        <v>53.43</v>
       </c>
       <c r="C47">
-        <v>4.9000000000000004</v>
+        <v>-0.84</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>59.91</v>
+        <v>52.37</v>
       </c>
       <c r="C48">
-        <v>10.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1593,16 +1596,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>52.39</v>
+        <v>59.91</v>
       </c>
       <c r="C49">
-        <v>4.6500000000000004</v>
+        <v>10.75</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1610,13 +1613,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>52.38</v>
+        <v>52.39</v>
       </c>
       <c r="C50">
-        <v>4.74</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1627,16 +1630,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>52.09</v>
+        <v>52.38</v>
       </c>
       <c r="C51">
-        <v>5.12</v>
+        <v>4.74</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1644,16 +1647,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>46.23</v>
+        <v>52.09</v>
       </c>
       <c r="C52">
-        <v>6.11</v>
+        <v>5.12</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1661,16 +1664,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B53">
-        <v>59.35</v>
+        <v>46.23</v>
       </c>
       <c r="C53">
-        <v>18.05</v>
+        <v>6.11</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1678,16 +1681,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>45.07</v>
+        <v>59.35</v>
       </c>
       <c r="C54">
-        <v>7.69</v>
+        <v>18.05</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1695,16 +1698,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B55">
-        <v>47.8</v>
+        <v>45.07</v>
       </c>
       <c r="C55">
-        <v>11.02</v>
+        <v>7.69</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1712,16 +1715,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B56">
-        <v>47.56</v>
+        <v>47.8</v>
       </c>
       <c r="C56">
-        <v>7.58</v>
+        <v>11.02</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1729,16 +1732,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B57">
-        <v>44.41</v>
+        <v>47.56</v>
       </c>
       <c r="C57">
-        <v>8.93</v>
+        <v>7.58</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1746,16 +1749,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B58">
-        <v>47.87</v>
+        <v>44.41</v>
       </c>
       <c r="C58">
-        <v>7.17</v>
+        <v>8.93</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1763,84 +1766,84 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B59">
-        <v>51.46</v>
+        <v>47.87</v>
       </c>
       <c r="C59">
-        <v>-0.98</v>
+        <v>7.17</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B60">
-        <v>51.66</v>
+        <v>51.46</v>
       </c>
       <c r="C60">
-        <v>-3.81</v>
+        <v>-0.98</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>52.52</v>
+        <v>51.66</v>
       </c>
       <c r="C61">
-        <v>13.4</v>
+        <v>-3.81</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>47.384999999999998</v>
+        <v>52.52</v>
       </c>
       <c r="C62">
-        <v>9.2789999999999999</v>
+        <v>13.4</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>46.948</v>
+        <v>47.384999999999998</v>
       </c>
       <c r="C63">
-        <v>7.452</v>
+        <v>9.2789999999999999</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1848,16 +1851,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>46.947000000000003</v>
+        <v>46.948</v>
       </c>
       <c r="C64">
-        <v>7.4509999999999996</v>
+        <v>7.452</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1865,16 +1868,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>46.807000000000002</v>
+        <v>46.947000000000003</v>
       </c>
       <c r="C65">
-        <v>7.1580000000000004</v>
+        <v>7.4509999999999996</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1882,16 +1885,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>46.539499999999997</v>
+        <v>46.807000000000002</v>
       </c>
       <c r="C66">
-        <v>9.2439999999999998</v>
+        <v>7.1580000000000004</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -1899,16 +1902,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>47.423999999999999</v>
+        <v>46.539499999999997</v>
       </c>
       <c r="C67">
-        <v>9.3780000000000001</v>
+        <v>9.2439999999999998</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -1916,16 +1919,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>47.695999999999998</v>
+        <v>47.423999999999999</v>
       </c>
       <c r="C68">
-        <v>8.6389999999999993</v>
+        <v>9.3780000000000001</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -1933,16 +1936,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>46.46</v>
+        <v>47.695999999999998</v>
       </c>
       <c r="C69">
-        <v>6.84</v>
+        <v>8.6389999999999993</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -1950,16 +1953,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>47.37</v>
+        <v>46.46</v>
       </c>
       <c r="C70">
-        <v>8.4740000000000002</v>
+        <v>6.84</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -1967,16 +1970,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>47.55</v>
+        <v>47.37</v>
       </c>
       <c r="C71">
-        <v>7.5910000000000002</v>
+        <v>8.4740000000000002</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -1984,16 +1987,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B72">
-        <v>45.883000000000003</v>
+        <v>47.55</v>
       </c>
       <c r="C72">
-        <v>11.05</v>
+        <v>7.5910000000000002</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2001,16 +2004,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>49.008000000000003</v>
+        <v>45.883000000000003</v>
       </c>
       <c r="C73">
-        <v>8.4039999999999999</v>
+        <v>11.05</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2018,16 +2021,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B74">
-        <v>54.73</v>
+        <v>49.008000000000003</v>
       </c>
       <c r="C74">
-        <v>-5.81</v>
+        <v>8.4039999999999999</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2035,13 +2038,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>53.341000000000001</v>
+        <v>54.73</v>
       </c>
       <c r="C75">
-        <v>-6.2569999999999997</v>
+        <v>-5.81</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -2052,13 +2055,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B76">
-        <v>53.387</v>
+        <v>53.341000000000001</v>
       </c>
       <c r="C76">
-        <v>-6.3369999999999997</v>
+        <v>-6.2569999999999997</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -2069,30 +2072,30 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>59.853999999999999</v>
+        <v>53.387</v>
       </c>
       <c r="C77">
-        <v>-1.2749999999999999</v>
+        <v>-6.3369999999999997</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>56.033000000000001</v>
+        <v>59.853999999999999</v>
       </c>
       <c r="C78">
-        <v>-3.1349999999999998</v>
+        <v>-1.2749999999999999</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2103,13 +2106,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>56.183</v>
+        <v>56.033000000000001</v>
       </c>
       <c r="C79">
-        <v>-2.5670000000000002</v>
+        <v>-3.1349999999999998</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2120,13 +2123,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>57.139000000000003</v>
+        <v>56.183</v>
       </c>
       <c r="C80">
-        <v>-2.0489999999999999</v>
+        <v>-2.5670000000000002</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2137,13 +2140,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>57.470999999999997</v>
+        <v>57.139000000000003</v>
       </c>
       <c r="C81">
-        <v>-1.7769999999999999</v>
+        <v>-2.0489999999999999</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2154,13 +2157,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>57.698</v>
+        <v>57.470999999999997</v>
       </c>
       <c r="C82">
-        <v>-2.0059999999999998</v>
+        <v>-1.7769999999999999</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2171,13 +2174,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>57.865000000000002</v>
+        <v>57.698</v>
       </c>
       <c r="C83">
-        <v>-3.7759999999999998</v>
+        <v>-2.0059999999999998</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2188,13 +2191,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>58.69</v>
+        <v>57.865000000000002</v>
       </c>
       <c r="C84">
-        <v>-2.9260000000000002</v>
+        <v>-3.7759999999999998</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2205,13 +2208,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>59.277000000000001</v>
+        <v>58.69</v>
       </c>
       <c r="C85">
-        <v>-2.3759999999999999</v>
+        <v>-2.9260000000000002</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2222,13 +2225,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B86">
-        <v>58.670999999999999</v>
+        <v>59.277000000000001</v>
       </c>
       <c r="C86">
-        <v>-3.3759999999999999</v>
+        <v>-2.3759999999999999</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2239,13 +2242,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>58.625</v>
+        <v>58.670999999999999</v>
       </c>
       <c r="C87">
-        <v>-4.9980000000000002</v>
+        <v>-3.3759999999999999</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2256,13 +2259,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>57.856000000000002</v>
+        <v>58.625</v>
       </c>
       <c r="C88">
-        <v>-6.6420000000000003</v>
+        <v>-4.9980000000000002</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2273,13 +2276,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>56.784999999999997</v>
+        <v>57.856000000000002</v>
       </c>
       <c r="C89">
-        <v>-7.6529999999999996</v>
+        <v>-6.6420000000000003</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2290,13 +2293,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>56.454999999999998</v>
+        <v>56.784999999999997</v>
       </c>
       <c r="C90">
-        <v>-5.6070000000000002</v>
+        <v>-7.6529999999999996</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2307,13 +2310,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>55.671999999999997</v>
+        <v>56.454999999999998</v>
       </c>
       <c r="C91">
-        <v>-6.5110000000000001</v>
+        <v>-5.6070000000000002</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2324,13 +2327,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>55.31</v>
+        <v>55.671999999999997</v>
       </c>
       <c r="C92">
-        <v>-5.8029999999999999</v>
+        <v>-6.5110000000000001</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2341,13 +2344,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>55.424999999999997</v>
+        <v>55.31</v>
       </c>
       <c r="C93">
-        <v>-5.1180000000000003</v>
+        <v>-5.8029999999999999</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2358,13 +2361,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>55.006999999999998</v>
+        <v>55.424999999999997</v>
       </c>
       <c r="C94">
-        <v>-5.1589999999999998</v>
+        <v>-5.1180000000000003</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2375,13 +2378,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>54.84</v>
+        <v>55.006999999999998</v>
       </c>
       <c r="C95">
-        <v>-5.1180000000000003</v>
+        <v>-5.1589999999999998</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2392,13 +2395,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>54.634999999999998</v>
+        <v>54.84</v>
       </c>
       <c r="C96">
-        <v>-4.8570000000000002</v>
+        <v>-5.1180000000000003</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2409,13 +2412,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>54.415999999999997</v>
+        <v>54.634999999999998</v>
       </c>
       <c r="C97">
-        <v>-4.3680000000000003</v>
+        <v>-4.8570000000000002</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2426,13 +2429,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>54.052</v>
+        <v>54.415999999999997</v>
       </c>
       <c r="C98">
-        <v>-4.8289999999999997</v>
+        <v>-4.3680000000000003</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2443,13 +2446,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>56.433</v>
+        <v>54.052</v>
       </c>
       <c r="C99">
-        <v>-2.3879999999999999</v>
+        <v>-4.8289999999999997</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2460,67 +2463,67 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>53.405000000000001</v>
+        <v>56.433</v>
       </c>
       <c r="C100">
-        <v>-2.988</v>
+        <v>-2.3879999999999999</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>50.802999999999997</v>
+        <v>53.405000000000001</v>
       </c>
       <c r="C101">
-        <v>4.3410000000000002</v>
+        <v>-2.988</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>55.86</v>
+        <v>50.802999999999997</v>
       </c>
       <c r="C102">
-        <v>-4.25</v>
+        <v>4.3410000000000002</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>50.98</v>
+        <v>55.86</v>
       </c>
       <c r="C103">
-        <v>0.94</v>
+        <v>-4.25</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>4</v>
@@ -2528,37 +2531,54 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B104">
+        <v>50.98</v>
+      </c>
+      <c r="C104">
+        <v>0.94</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
         <v>52.56</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>-8.7899999999999991</v>
       </c>
-      <c r="D104">
-        <v>4</v>
-      </c>
-      <c r="E104">
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"2$B$8"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"2$B$8"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8B947-0B6A-934B-8581-C8FA256D0347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BED299-7FB4-0347-B4ED-0E5DF8322821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="2480" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>Armagh</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>London (Greenwich)</t>
+  </si>
+  <si>
+    <t>Allenheads</t>
   </si>
 </sst>
 </file>
@@ -763,11 +766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2560,6 +2563,23 @@
         <v>4</v>
       </c>
       <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106">
+        <v>54.8</v>
+      </c>
+      <c r="C106">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
         <v>4</v>
       </c>
     </row>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BED299-7FB4-0347-B4ED-0E5DF8322821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F35ADBF-9FA8-E444-A476-90B57F9CD367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3640" yWindow="2480" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>Armagh</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Allenheads</t>
+  </si>
+  <si>
+    <t>Orkney</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -766,11 +772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2580,6 +2586,23 @@
         <v>2</v>
       </c>
       <c r="E106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
         <v>4</v>
       </c>
     </row>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F35ADBF-9FA8-E444-A476-90B57F9CD367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3465008-8167-D34C-A0D8-A77A440BECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="2480" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
+    <workbookView xWindow="1240" yWindow="760" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>Armagh</t>
   </si>
@@ -369,6 +369,21 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>Kinfauns Castle</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Whitby</t>
+  </si>
+  <si>
+    <t>Aberavon</t>
   </si>
 </sst>
 </file>
@@ -772,11 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2549,7 +2564,7 @@
         <v>0.94</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>4</v>
@@ -2603,6 +2618,91 @@
         <v>2</v>
       </c>
       <c r="E107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>56.387999999999998</v>
+      </c>
+      <c r="C108">
+        <v>-3.3780000000000001</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>56.46</v>
+      </c>
+      <c r="C109">
+        <v>-2.97</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>53.38</v>
+      </c>
+      <c r="C110">
+        <v>-1.47</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>54.48</v>
+      </c>
+      <c r="C111">
+        <v>-0.61</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>51.59</v>
+      </c>
+      <c r="C112">
+        <v>-3.78</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
         <v>4</v>
       </c>
     </row>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3465008-8167-D34C-A0D8-A77A440BECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C6E9A4-5A0A-DD40-9AF6-E07BADD8A49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="760" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
   <si>
     <t>Armagh</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Aberavon</t>
+  </si>
+  <si>
+    <t>Saunders (Wandsworth)</t>
   </si>
 </sst>
 </file>
@@ -787,11 +790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2703,6 +2706,23 @@
         <v>0</v>
       </c>
       <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>51.46</v>
+      </c>
+      <c r="C113">
+        <v>-0.19</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
         <v>4</v>
       </c>
     </row>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C6E9A4-5A0A-DD40-9AF6-E07BADD8A49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52A307-B919-3749-B8D0-6BC8960E8D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="760" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
   <si>
     <t>Armagh</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Saunders (Wandsworth)</t>
+  </si>
+  <si>
+    <t>Trondheim</t>
   </si>
 </sst>
 </file>
@@ -790,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2724,6 +2727,23 @@
       </c>
       <c r="E113">
         <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>63.41</v>
+      </c>
+      <c r="C114">
+        <v>10.4</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52A307-B919-3749-B8D0-6BC8960E8D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D454D57-EDEF-224F-B293-E7AF47E8B22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="760" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>Armagh</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Trondheim</t>
+  </si>
+  <si>
+    <t>Touiouse</t>
   </si>
 </sst>
 </file>
@@ -793,11 +796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2744,6 +2747,23 @@
       </c>
       <c r="E114">
         <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>43.6</v>
+      </c>
+      <c r="C115">
+        <v>1.46</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/night-big-wind/rough-locations.xlsx
+++ b/night-big-wind/rough-locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/night-big-wind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D454D57-EDEF-224F-B293-E7AF47E8B22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC81C7FC-D36C-F842-AEE7-203C3ED07AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="760" windowWidth="21480" windowHeight="13660" xr2:uid="{956636CC-2F8C-EF47-81E6-ADBD09CAFC15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>Armagh</t>
   </si>
@@ -393,6 +393,18 @@
   </si>
   <si>
     <t>Touiouse</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Canaan Cottage</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Dunfermline</t>
   </si>
 </sst>
 </file>
@@ -500,9 +512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -540,7 +552,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -646,7 +658,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -788,7 +800,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -796,11 +808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA6576C-B8C9-5B4D-B110-95EB9DA3F436}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2764,6 +2776,26 @@
       </c>
       <c r="E115">
         <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
